--- a/SEP/Time Log & Planned Weekly/Timelog_DatTran_SEP.xlsx
+++ b/SEP/Time Log & Planned Weekly/Timelog_DatTran_SEP.xlsx
@@ -18,18 +18,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="57">
   <si>
-    <t>Time Recording Log For:    POS Project</t>
-  </si>
-  <si>
     <t>SUMMARY: TIME FOR DOING PROJECT</t>
   </si>
   <si>
     <t>Name:</t>
   </si>
   <si>
-    <t>Huy Huynh</t>
-  </si>
-  <si>
     <t xml:space="preserve">Date: </t>
   </si>
   <si>
@@ -187,6 +181,12 @@
   </si>
   <si>
     <t>ReView all project</t>
+  </si>
+  <si>
+    <t>Time Recording Log For:   SEP Project</t>
+  </si>
+  <si>
+    <t>Dat Tran</t>
   </si>
 </sst>
 </file>
@@ -727,6 +727,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -787,33 +799,30 @@
     <xf numFmtId="16" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="18" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -821,15 +830,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1149,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,24 +1173,24 @@
   <sheetData>
     <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="E2" s="1" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="D3" s="1"/>
       <c r="L3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="27" t="s">
         <v>2</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>4</v>
       </c>
       <c r="G4" s="28">
         <v>41043</v>
@@ -1199,45 +1199,45 @@
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="29"/>
       <c r="L5" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="L6" s="26" t="s">
         <v>15</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="26" t="s">
-        <v>17</v>
       </c>
       <c r="M6" s="30" t="e">
         <f>SUM(F7:F12) +#REF! +#REF!/ 2+F77</f>
@@ -1245,7 +1245,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="80">
+      <c r="A7" s="84">
         <v>1</v>
       </c>
       <c r="B7" s="31">
@@ -1264,13 +1264,13 @@
         <v>1.5</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H7" s="33"/>
       <c r="I7" s="24"/>
       <c r="J7" s="24"/>
       <c r="L7" s="26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M7" s="30">
         <f>SUM(F15:F26)</f>
@@ -1278,7 +1278,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="81"/>
+      <c r="A8" s="85"/>
       <c r="B8" s="31"/>
       <c r="C8" s="32"/>
       <c r="D8" s="34"/>
@@ -1289,7 +1289,7 @@
       <c r="I8" s="35"/>
       <c r="J8" s="35"/>
       <c r="L8" s="26" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M8" s="30">
         <f>SUM(F30:F39)+SUM(F59:F67) + SUM(F84:F91)</f>
@@ -1297,7 +1297,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="81"/>
+      <c r="A9" s="85"/>
       <c r="B9" s="36"/>
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
@@ -1310,7 +1310,7 @@
       <c r="M9" s="30"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="81"/>
+      <c r="A10" s="85"/>
       <c r="B10" s="31"/>
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
@@ -1323,31 +1323,31 @@
       <c r="M10" s="30"/>
     </row>
     <row r="11" spans="1:13" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="81"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="100"/>
+      <c r="A11" s="85"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
       <c r="M11" s="30"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="82"/>
-      <c r="B12" s="84"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="101"/>
+      <c r="A12" s="86"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
       <c r="L12" s="26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M12" s="30">
         <f>SUM(F40:F58)</f>
@@ -1355,7 +1355,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="80">
+      <c r="A13" s="84">
         <v>2</v>
       </c>
       <c r="B13" s="31">
@@ -1374,13 +1374,13 @@
         <v>2</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
       <c r="L13" s="26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M13" s="30" t="e">
         <f xml:space="preserve"> SUM(F40:F58) +#REF! + F83</f>
@@ -1388,7 +1388,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="81"/>
+      <c r="A14" s="85"/>
       <c r="B14" s="31">
         <v>41051</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>2</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H14" s="39"/>
       <c r="I14" s="25"/>
@@ -1413,30 +1413,30 @@
       <c r="M14" s="30"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="81"/>
-      <c r="B15" s="83">
+      <c r="A15" s="85"/>
+      <c r="B15" s="87">
         <v>41052</v>
       </c>
-      <c r="C15" s="85">
+      <c r="C15" s="89">
         <v>0.875</v>
       </c>
-      <c r="D15" s="85">
+      <c r="D15" s="89">
         <v>0.9375</v>
       </c>
-      <c r="E15" s="87">
-        <v>0</v>
-      </c>
-      <c r="F15" s="87">
+      <c r="E15" s="91">
+        <v>0</v>
+      </c>
+      <c r="F15" s="91">
         <v>1.5</v>
       </c>
-      <c r="G15" s="87" t="s">
-        <v>42</v>
+      <c r="G15" s="91" t="s">
+        <v>40</v>
       </c>
       <c r="H15" s="38"/>
-      <c r="I15" s="97"/>
-      <c r="J15" s="97"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
       <c r="L15" s="26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M15" s="30" t="e">
         <f>SUM(M6:M13)</f>
@@ -1444,18 +1444,18 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="81"/>
-      <c r="B16" s="84"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
+      <c r="A16" s="85"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
       <c r="H16" s="33"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
       <c r="L16" s="26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M16" s="30" t="e">
         <f>M15/8</f>
@@ -1463,7 +1463,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="82"/>
+      <c r="A17" s="86"/>
       <c r="B17" s="40"/>
       <c r="C17" s="41"/>
       <c r="D17" s="41"/>
@@ -1475,45 +1475,45 @@
       <c r="J17" s="42"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="77">
+      <c r="A18" s="81">
         <v>3</v>
       </c>
-      <c r="B18" s="89">
+      <c r="B18" s="93">
         <v>41057</v>
       </c>
-      <c r="C18" s="91">
+      <c r="C18" s="95">
         <v>0.375</v>
       </c>
-      <c r="D18" s="91">
+      <c r="D18" s="95">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E18" s="97">
-        <v>0</v>
-      </c>
-      <c r="F18" s="97">
+      <c r="E18" s="79">
+        <v>0</v>
+      </c>
+      <c r="F18" s="79">
         <v>2</v>
       </c>
-      <c r="G18" s="97" t="s">
-        <v>22</v>
+      <c r="G18" s="79" t="s">
+        <v>20</v>
       </c>
       <c r="H18" s="25"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="97"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="78"/>
-      <c r="B19" s="90"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98"/>
+      <c r="A19" s="82"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
       <c r="H19" s="24"/>
-      <c r="I19" s="98"/>
-      <c r="J19" s="98"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="78"/>
+      <c r="A20" s="82"/>
       <c r="B20" s="43">
         <v>41058</v>
       </c>
@@ -1530,14 +1530,14 @@
         <v>2</v>
       </c>
       <c r="G20" s="46" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H20" s="46"/>
       <c r="I20" s="46"/>
       <c r="J20" s="46"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="78"/>
+      <c r="A21" s="82"/>
       <c r="B21" s="43">
         <v>41059</v>
       </c>
@@ -1554,14 +1554,14 @@
         <v>2</v>
       </c>
       <c r="G21" s="59" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H21" s="59"/>
       <c r="I21" s="59"/>
       <c r="J21" s="60"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="78"/>
+      <c r="A22" s="82"/>
       <c r="B22" s="43">
         <v>41059</v>
       </c>
@@ -1578,110 +1578,110 @@
         <v>1.5</v>
       </c>
       <c r="G22" s="59" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H22" s="59"/>
       <c r="I22" s="59"/>
       <c r="J22" s="60"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="78"/>
-      <c r="B23" s="96">
+      <c r="A23" s="82"/>
+      <c r="B23" s="100">
         <v>41060</v>
       </c>
-      <c r="C23" s="91">
+      <c r="C23" s="95">
         <v>0.875</v>
       </c>
-      <c r="D23" s="91">
+      <c r="D23" s="95">
         <v>0.95833333333333337</v>
       </c>
-      <c r="E23" s="97">
-        <v>0</v>
-      </c>
-      <c r="F23" s="97">
+      <c r="E23" s="79">
+        <v>0</v>
+      </c>
+      <c r="F23" s="79">
         <v>2</v>
       </c>
-      <c r="G23" s="97" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" s="97"/>
-      <c r="I23" s="97"/>
-      <c r="J23" s="99"/>
+      <c r="G23" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="101"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="78"/>
-      <c r="B24" s="96"/>
-      <c r="C24" s="104"/>
-      <c r="D24" s="104"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="99"/>
+      <c r="A24" s="82"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="78"/>
-      <c r="B25" s="96"/>
-      <c r="C25" s="104"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="99"/>
-      <c r="J25" s="99"/>
+      <c r="A25" s="82"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="101"/>
+      <c r="J25" s="101"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="78"/>
-      <c r="B26" s="96"/>
-      <c r="C26" s="92"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="98"/>
-      <c r="J26" s="99"/>
+      <c r="A26" s="82"/>
+      <c r="B26" s="100"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="101"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="78"/>
-      <c r="B27" s="89">
+      <c r="A27" s="82"/>
+      <c r="B27" s="93">
         <v>41061</v>
       </c>
-      <c r="C27" s="91">
+      <c r="C27" s="95">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D27" s="91">
+      <c r="D27" s="95">
         <v>0.95833333333333337</v>
       </c>
-      <c r="E27" s="97">
-        <v>0</v>
-      </c>
-      <c r="F27" s="97">
+      <c r="E27" s="79">
+        <v>0</v>
+      </c>
+      <c r="F27" s="79">
         <v>4</v>
       </c>
-      <c r="G27" s="97" t="s">
-        <v>44</v>
-      </c>
-      <c r="H27" s="97"/>
-      <c r="I27" s="97"/>
-      <c r="J27" s="97"/>
+      <c r="G27" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" s="79"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="79"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="78"/>
-      <c r="B28" s="90"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="98"/>
-      <c r="G28" s="98"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="98"/>
-      <c r="J28" s="98"/>
+      <c r="A28" s="82"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="80"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="78"/>
+      <c r="A29" s="82"/>
       <c r="B29" s="31"/>
       <c r="C29" s="32"/>
       <c r="D29" s="32"/>
@@ -1693,153 +1693,153 @@
       <c r="J29" s="24"/>
     </row>
     <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="78"/>
-      <c r="B30" s="93"/>
+      <c r="A30" s="82"/>
+      <c r="B30" s="97"/>
       <c r="C30" s="48"/>
       <c r="D30" s="48"/>
       <c r="E30" s="49"/>
       <c r="F30" s="49"/>
       <c r="G30" s="49"/>
       <c r="H30" s="49"/>
-      <c r="I30" s="97"/>
+      <c r="I30" s="79"/>
       <c r="J30" s="25"/>
     </row>
     <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="78"/>
-      <c r="B31" s="94"/>
+      <c r="A31" s="82"/>
+      <c r="B31" s="98"/>
       <c r="C31" s="49"/>
       <c r="D31" s="49"/>
       <c r="E31" s="49"/>
       <c r="F31" s="49"/>
       <c r="G31" s="49"/>
       <c r="H31" s="49"/>
-      <c r="I31" s="99"/>
+      <c r="I31" s="101"/>
       <c r="J31" s="25"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="79"/>
-      <c r="B32" s="95"/>
+      <c r="A32" s="83"/>
+      <c r="B32" s="99"/>
       <c r="C32" s="50"/>
       <c r="D32" s="35"/>
       <c r="E32" s="35"/>
       <c r="F32" s="35"/>
       <c r="G32" s="35"/>
       <c r="H32" s="35"/>
-      <c r="I32" s="98"/>
+      <c r="I32" s="80"/>
       <c r="J32" s="24"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="77">
+      <c r="A33" s="81">
         <v>4</v>
       </c>
-      <c r="B33" s="89">
+      <c r="B33" s="93">
         <v>41065</v>
       </c>
-      <c r="C33" s="91">
+      <c r="C33" s="95">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D33" s="91">
+      <c r="D33" s="95">
         <v>0.95833333333333337</v>
       </c>
-      <c r="E33" s="97">
-        <v>0</v>
-      </c>
-      <c r="F33" s="97">
+      <c r="E33" s="79">
+        <v>0</v>
+      </c>
+      <c r="F33" s="79">
         <v>4</v>
       </c>
-      <c r="G33" s="97" t="s">
-        <v>44</v>
+      <c r="G33" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="H33" s="25"/>
-      <c r="I33" s="97"/>
+      <c r="I33" s="79"/>
       <c r="J33" s="25"/>
     </row>
     <row r="34" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="78"/>
-      <c r="B34" s="96"/>
-      <c r="C34" s="104"/>
-      <c r="D34" s="104"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
+      <c r="A34" s="82"/>
+      <c r="B34" s="100"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="102"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="101"/>
+      <c r="G34" s="101"/>
       <c r="H34" s="25"/>
-      <c r="I34" s="99"/>
+      <c r="I34" s="101"/>
       <c r="J34" s="25"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="78"/>
-      <c r="B35" s="90"/>
-      <c r="C35" s="92"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="98"/>
-      <c r="F35" s="98"/>
-      <c r="G35" s="98"/>
+      <c r="A35" s="82"/>
+      <c r="B35" s="94"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="80"/>
       <c r="H35" s="24"/>
-      <c r="I35" s="98"/>
+      <c r="I35" s="80"/>
       <c r="J35" s="24"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="78"/>
-      <c r="B36" s="89">
+      <c r="A36" s="82"/>
+      <c r="B36" s="93">
         <v>41066</v>
       </c>
-      <c r="C36" s="91">
+      <c r="C36" s="95">
         <v>0.875</v>
       </c>
-      <c r="D36" s="91">
+      <c r="D36" s="95">
         <v>0.95833333333333337</v>
       </c>
-      <c r="E36" s="97">
-        <v>0</v>
-      </c>
-      <c r="F36" s="97">
+      <c r="E36" s="79">
+        <v>0</v>
+      </c>
+      <c r="F36" s="79">
         <v>3</v>
       </c>
-      <c r="G36" s="97" t="s">
-        <v>44</v>
+      <c r="G36" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="H36" s="25"/>
-      <c r="I36" s="97"/>
+      <c r="I36" s="79"/>
       <c r="J36" s="25"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="78"/>
-      <c r="B37" s="96"/>
-      <c r="C37" s="104"/>
-      <c r="D37" s="104"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="99"/>
+      <c r="A37" s="82"/>
+      <c r="B37" s="100"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="102"/>
+      <c r="E37" s="101"/>
+      <c r="F37" s="101"/>
+      <c r="G37" s="101"/>
       <c r="H37" s="25"/>
-      <c r="I37" s="99"/>
+      <c r="I37" s="101"/>
       <c r="J37" s="25"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="78"/>
-      <c r="B38" s="96"/>
-      <c r="C38" s="104"/>
-      <c r="D38" s="104"/>
-      <c r="E38" s="99"/>
-      <c r="F38" s="99"/>
-      <c r="G38" s="99"/>
+      <c r="A38" s="82"/>
+      <c r="B38" s="100"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="102"/>
+      <c r="E38" s="101"/>
+      <c r="F38" s="101"/>
+      <c r="G38" s="101"/>
       <c r="H38" s="25"/>
-      <c r="I38" s="99"/>
+      <c r="I38" s="101"/>
       <c r="J38" s="25"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="78"/>
-      <c r="B39" s="90"/>
-      <c r="C39" s="92"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="98"/>
-      <c r="F39" s="98"/>
-      <c r="G39" s="98"/>
+      <c r="A39" s="82"/>
+      <c r="B39" s="94"/>
+      <c r="C39" s="96"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="80"/>
       <c r="H39" s="24"/>
-      <c r="I39" s="98"/>
+      <c r="I39" s="80"/>
       <c r="J39" s="24"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="79"/>
+      <c r="A40" s="83"/>
       <c r="B40" s="31">
         <v>41067</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>2</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
@@ -1911,203 +1911,203 @@
       <c r="J44" s="35"/>
     </row>
     <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="80">
+      <c r="A45" s="84">
         <v>5</v>
       </c>
-      <c r="B45" s="83">
+      <c r="B45" s="87">
         <v>41075</v>
       </c>
-      <c r="C45" s="85">
+      <c r="C45" s="89">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D45" s="85">
+      <c r="D45" s="89">
         <v>0.91666666666666663</v>
       </c>
-      <c r="E45" s="87">
-        <v>0</v>
-      </c>
-      <c r="F45" s="87">
+      <c r="E45" s="91">
+        <v>0</v>
+      </c>
+      <c r="F45" s="91">
         <v>2</v>
       </c>
-      <c r="G45" s="87" t="s">
-        <v>45</v>
+      <c r="G45" s="91" t="s">
+        <v>43</v>
       </c>
       <c r="H45" s="38"/>
-      <c r="I45" s="97"/>
-      <c r="J45" s="97"/>
+      <c r="I45" s="79"/>
+      <c r="J45" s="79"/>
     </row>
     <row r="46" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="81"/>
-      <c r="B46" s="102"/>
-      <c r="C46" s="103"/>
-      <c r="D46" s="103"/>
-      <c r="E46" s="105"/>
-      <c r="F46" s="105"/>
-      <c r="G46" s="105"/>
+      <c r="A46" s="85"/>
+      <c r="B46" s="108"/>
+      <c r="C46" s="104"/>
+      <c r="D46" s="104"/>
+      <c r="E46" s="103"/>
+      <c r="F46" s="103"/>
+      <c r="G46" s="103"/>
       <c r="H46" s="38"/>
-      <c r="I46" s="99"/>
-      <c r="J46" s="99"/>
+      <c r="I46" s="101"/>
+      <c r="J46" s="101"/>
     </row>
     <row r="47" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="81"/>
-      <c r="B47" s="102"/>
-      <c r="C47" s="103"/>
-      <c r="D47" s="103"/>
-      <c r="E47" s="105"/>
-      <c r="F47" s="105"/>
-      <c r="G47" s="105"/>
+      <c r="A47" s="85"/>
+      <c r="B47" s="108"/>
+      <c r="C47" s="104"/>
+      <c r="D47" s="104"/>
+      <c r="E47" s="103"/>
+      <c r="F47" s="103"/>
+      <c r="G47" s="103"/>
       <c r="H47" s="38"/>
-      <c r="I47" s="99"/>
-      <c r="J47" s="99"/>
+      <c r="I47" s="101"/>
+      <c r="J47" s="101"/>
     </row>
     <row r="48" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="81"/>
-      <c r="B48" s="102"/>
-      <c r="C48" s="103"/>
-      <c r="D48" s="103"/>
-      <c r="E48" s="105"/>
-      <c r="F48" s="105"/>
-      <c r="G48" s="105"/>
+      <c r="A48" s="85"/>
+      <c r="B48" s="108"/>
+      <c r="C48" s="104"/>
+      <c r="D48" s="104"/>
+      <c r="E48" s="103"/>
+      <c r="F48" s="103"/>
+      <c r="G48" s="103"/>
       <c r="H48" s="38"/>
-      <c r="I48" s="99"/>
-      <c r="J48" s="99"/>
+      <c r="I48" s="101"/>
+      <c r="J48" s="101"/>
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="81"/>
-      <c r="B49" s="84"/>
-      <c r="C49" s="86"/>
-      <c r="D49" s="86"/>
-      <c r="E49" s="88"/>
-      <c r="F49" s="88"/>
-      <c r="G49" s="88"/>
+      <c r="A49" s="85"/>
+      <c r="B49" s="88"/>
+      <c r="C49" s="90"/>
+      <c r="D49" s="90"/>
+      <c r="E49" s="92"/>
+      <c r="F49" s="92"/>
+      <c r="G49" s="92"/>
       <c r="H49" s="33"/>
-      <c r="I49" s="98"/>
-      <c r="J49" s="98"/>
+      <c r="I49" s="80"/>
+      <c r="J49" s="80"/>
     </row>
     <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="81"/>
-      <c r="B50" s="83">
+      <c r="A50" s="85"/>
+      <c r="B50" s="87">
         <v>41076</v>
       </c>
-      <c r="C50" s="85">
+      <c r="C50" s="89">
         <v>0.375</v>
       </c>
-      <c r="D50" s="85">
+      <c r="D50" s="89">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E50" s="87">
-        <v>0</v>
-      </c>
-      <c r="F50" s="87">
+      <c r="E50" s="91">
+        <v>0</v>
+      </c>
+      <c r="F50" s="91">
         <v>2.5</v>
       </c>
-      <c r="G50" s="87" t="s">
-        <v>37</v>
+      <c r="G50" s="91" t="s">
+        <v>35</v>
       </c>
       <c r="H50" s="38"/>
-      <c r="I50" s="97"/>
-      <c r="J50" s="97"/>
+      <c r="I50" s="79"/>
+      <c r="J50" s="79"/>
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="81"/>
-      <c r="B51" s="102"/>
-      <c r="C51" s="86"/>
-      <c r="D51" s="86"/>
-      <c r="E51" s="88"/>
-      <c r="F51" s="88"/>
-      <c r="G51" s="88"/>
+      <c r="A51" s="85"/>
+      <c r="B51" s="108"/>
+      <c r="C51" s="90"/>
+      <c r="D51" s="90"/>
+      <c r="E51" s="92"/>
+      <c r="F51" s="92"/>
+      <c r="G51" s="92"/>
       <c r="H51" s="38"/>
-      <c r="I51" s="99"/>
-      <c r="J51" s="99"/>
+      <c r="I51" s="101"/>
+      <c r="J51" s="101"/>
     </row>
     <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="80">
+      <c r="A52" s="84">
         <v>6</v>
       </c>
-      <c r="B52" s="83">
+      <c r="B52" s="87">
         <v>41077</v>
       </c>
-      <c r="C52" s="85">
+      <c r="C52" s="89">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D52" s="85">
+      <c r="D52" s="89">
         <v>0.95833333333333337</v>
       </c>
-      <c r="E52" s="87">
-        <v>0</v>
-      </c>
-      <c r="F52" s="87">
+      <c r="E52" s="91">
+        <v>0</v>
+      </c>
+      <c r="F52" s="91">
         <v>3</v>
       </c>
-      <c r="G52" s="87" t="s">
-        <v>46</v>
+      <c r="G52" s="91" t="s">
+        <v>44</v>
       </c>
       <c r="H52" s="38"/>
-      <c r="I52" s="97"/>
+      <c r="I52" s="79"/>
       <c r="J52" s="25"/>
     </row>
     <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="81"/>
-      <c r="B53" s="102"/>
-      <c r="C53" s="103"/>
-      <c r="D53" s="103"/>
-      <c r="E53" s="105"/>
-      <c r="F53" s="105"/>
-      <c r="G53" s="105"/>
+      <c r="A53" s="85"/>
+      <c r="B53" s="108"/>
+      <c r="C53" s="104"/>
+      <c r="D53" s="104"/>
+      <c r="E53" s="103"/>
+      <c r="F53" s="103"/>
+      <c r="G53" s="103"/>
       <c r="H53" s="38"/>
-      <c r="I53" s="99"/>
+      <c r="I53" s="101"/>
       <c r="J53" s="25"/>
     </row>
     <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="81"/>
-      <c r="B54" s="102"/>
-      <c r="C54" s="103"/>
-      <c r="D54" s="103"/>
-      <c r="E54" s="105"/>
-      <c r="F54" s="105"/>
-      <c r="G54" s="105"/>
+      <c r="A54" s="85"/>
+      <c r="B54" s="108"/>
+      <c r="C54" s="104"/>
+      <c r="D54" s="104"/>
+      <c r="E54" s="103"/>
+      <c r="F54" s="103"/>
+      <c r="G54" s="103"/>
       <c r="H54" s="38"/>
-      <c r="I54" s="99"/>
+      <c r="I54" s="101"/>
       <c r="J54" s="25"/>
     </row>
     <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="81"/>
-      <c r="B55" s="102"/>
-      <c r="C55" s="103"/>
-      <c r="D55" s="103"/>
-      <c r="E55" s="105"/>
-      <c r="F55" s="105"/>
-      <c r="G55" s="105"/>
+      <c r="A55" s="85"/>
+      <c r="B55" s="108"/>
+      <c r="C55" s="104"/>
+      <c r="D55" s="104"/>
+      <c r="E55" s="103"/>
+      <c r="F55" s="103"/>
+      <c r="G55" s="103"/>
       <c r="H55" s="38"/>
-      <c r="I55" s="99"/>
+      <c r="I55" s="101"/>
       <c r="J55" s="25"/>
     </row>
     <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="81"/>
-      <c r="B56" s="102"/>
-      <c r="C56" s="103"/>
-      <c r="D56" s="103"/>
-      <c r="E56" s="105"/>
-      <c r="F56" s="105"/>
-      <c r="G56" s="105"/>
+      <c r="A56" s="85"/>
+      <c r="B56" s="108"/>
+      <c r="C56" s="104"/>
+      <c r="D56" s="104"/>
+      <c r="E56" s="103"/>
+      <c r="F56" s="103"/>
+      <c r="G56" s="103"/>
       <c r="H56" s="38"/>
-      <c r="I56" s="99"/>
+      <c r="I56" s="101"/>
       <c r="J56" s="25"/>
     </row>
     <row r="57" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="81"/>
-      <c r="B57" s="102"/>
-      <c r="C57" s="86"/>
-      <c r="D57" s="86"/>
-      <c r="E57" s="88"/>
-      <c r="F57" s="88"/>
-      <c r="G57" s="88"/>
+      <c r="A57" s="85"/>
+      <c r="B57" s="108"/>
+      <c r="C57" s="90"/>
+      <c r="D57" s="90"/>
+      <c r="E57" s="92"/>
+      <c r="F57" s="92"/>
+      <c r="G57" s="92"/>
       <c r="H57" s="38"/>
-      <c r="I57" s="99"/>
+      <c r="I57" s="101"/>
       <c r="J57" s="25"/>
     </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="81"/>
+      <c r="A58" s="85"/>
       <c r="B58" s="63">
         <v>41078</v>
       </c>
@@ -2124,14 +2124,14 @@
         <v>2.5</v>
       </c>
       <c r="G58" s="65" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H58" s="65"/>
       <c r="I58" s="54"/>
       <c r="J58" s="54"/>
     </row>
     <row r="59" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="81"/>
+      <c r="A59" s="85"/>
       <c r="B59" s="63">
         <v>41078</v>
       </c>
@@ -2148,14 +2148,14 @@
         <v>1.5</v>
       </c>
       <c r="G59" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H59" s="33"/>
       <c r="I59" s="35"/>
       <c r="J59" s="35"/>
     </row>
     <row r="60" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="81"/>
+      <c r="A60" s="85"/>
       <c r="B60" s="63">
         <v>41079</v>
       </c>
@@ -2172,14 +2172,14 @@
         <v>4</v>
       </c>
       <c r="G60" s="33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H60" s="33"/>
       <c r="I60" s="35"/>
       <c r="J60" s="35"/>
     </row>
     <row r="61" spans="1:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="81"/>
+      <c r="A61" s="85"/>
       <c r="B61" s="63">
         <v>41080</v>
       </c>
@@ -2196,14 +2196,14 @@
         <v>3</v>
       </c>
       <c r="G61" s="33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H61" s="33"/>
       <c r="I61" s="35"/>
       <c r="J61" s="35"/>
     </row>
     <row r="62" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="82"/>
+      <c r="A62" s="86"/>
       <c r="B62" s="63">
         <v>40352</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>4</v>
       </c>
       <c r="G62" s="39" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H62" s="39"/>
       <c r="I62" s="55"/>
@@ -2246,14 +2246,14 @@
         <v>0.5</v>
       </c>
       <c r="G63" s="70" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H63" s="39"/>
       <c r="I63" s="55"/>
       <c r="J63" s="55"/>
     </row>
     <row r="64" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="106">
+      <c r="A64" s="109">
         <v>9</v>
       </c>
       <c r="B64" s="63">
@@ -2272,14 +2272,14 @@
         <v>3</v>
       </c>
       <c r="G64" s="70" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H64" s="39"/>
       <c r="I64" s="42"/>
       <c r="J64" s="42"/>
     </row>
     <row r="65" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="107"/>
+      <c r="A65" s="110"/>
       <c r="B65" s="63">
         <v>41102</v>
       </c>
@@ -2296,14 +2296,14 @@
         <v>3</v>
       </c>
       <c r="G65" s="70" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H65" s="33"/>
       <c r="I65" s="24"/>
       <c r="J65" s="24"/>
     </row>
     <row r="66" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="107"/>
+      <c r="A66" s="110"/>
       <c r="B66" s="63">
         <v>41103</v>
       </c>
@@ -2320,14 +2320,14 @@
         <v>3</v>
       </c>
       <c r="G66" s="70" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H66" s="39"/>
       <c r="I66" s="46"/>
       <c r="J66" s="54"/>
     </row>
     <row r="67" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="107"/>
+      <c r="A67" s="110"/>
       <c r="B67" s="56">
         <v>41104</v>
       </c>
@@ -2344,14 +2344,14 @@
         <v>3</v>
       </c>
       <c r="G67" s="70" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H67" s="39"/>
       <c r="I67" s="46"/>
       <c r="J67" s="54"/>
     </row>
     <row r="68" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="108"/>
+      <c r="A68" s="111"/>
       <c r="B68" s="63">
         <v>41105</v>
       </c>
@@ -2368,14 +2368,14 @@
         <v>3</v>
       </c>
       <c r="G68" s="65" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H68" s="39"/>
       <c r="I68" s="46"/>
       <c r="J68" s="54"/>
     </row>
     <row r="69" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="80">
+      <c r="A69" s="84">
         <v>10</v>
       </c>
       <c r="B69" s="63">
@@ -2394,14 +2394,14 @@
         <v>3</v>
       </c>
       <c r="G69" s="65" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H69" s="39"/>
       <c r="I69" s="46"/>
       <c r="J69" s="54"/>
     </row>
     <row r="70" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="81"/>
+      <c r="A70" s="85"/>
       <c r="B70" s="56">
         <v>41107</v>
       </c>
@@ -2418,14 +2418,14 @@
         <v>3</v>
       </c>
       <c r="G70" s="65" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H70" s="57"/>
       <c r="I70" s="61"/>
       <c r="J70" s="24"/>
     </row>
     <row r="71" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="81"/>
+      <c r="A71" s="85"/>
       <c r="B71" s="63">
         <v>41108</v>
       </c>
@@ -2442,14 +2442,14 @@
         <v>3</v>
       </c>
       <c r="G71" s="65" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H71" s="39"/>
       <c r="I71" s="54"/>
       <c r="J71" s="54"/>
     </row>
     <row r="72" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="81"/>
+      <c r="A72" s="85"/>
       <c r="B72" s="63">
         <v>41109</v>
       </c>
@@ -2466,14 +2466,14 @@
         <v>3</v>
       </c>
       <c r="G72" s="65" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H72" s="75"/>
-      <c r="I72" s="97"/>
+      <c r="I72" s="79"/>
       <c r="J72" s="25"/>
     </row>
     <row r="73" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="81"/>
+      <c r="A73" s="85"/>
       <c r="B73" s="56">
         <v>41110</v>
       </c>
@@ -2490,14 +2490,14 @@
         <v>3</v>
       </c>
       <c r="G73" s="65" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H73" s="38"/>
-      <c r="I73" s="99"/>
+      <c r="I73" s="101"/>
       <c r="J73" s="25"/>
     </row>
     <row r="74" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="81"/>
+      <c r="A74" s="85"/>
       <c r="B74" s="63">
         <v>41111</v>
       </c>
@@ -2514,14 +2514,14 @@
         <v>3</v>
       </c>
       <c r="G74" s="65" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H74" s="38"/>
-      <c r="I74" s="99"/>
+      <c r="I74" s="101"/>
       <c r="J74" s="25"/>
     </row>
     <row r="75" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="82"/>
+      <c r="A75" s="86"/>
       <c r="B75" s="63">
         <v>41112</v>
       </c>
@@ -2538,14 +2538,14 @@
         <v>3</v>
       </c>
       <c r="G75" s="65" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H75" s="38"/>
-      <c r="I75" s="99"/>
+      <c r="I75" s="101"/>
       <c r="J75" s="25"/>
     </row>
     <row r="76" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="80">
+      <c r="A76" s="84">
         <v>11</v>
       </c>
       <c r="B76" s="56">
@@ -2564,14 +2564,14 @@
         <v>3</v>
       </c>
       <c r="G76" s="65" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H76" s="38"/>
-      <c r="I76" s="99"/>
+      <c r="I76" s="101"/>
       <c r="J76" s="25"/>
     </row>
     <row r="77" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="81"/>
+      <c r="A77" s="85"/>
       <c r="B77" s="56">
         <v>41114</v>
       </c>
@@ -2588,14 +2588,14 @@
         <v>3</v>
       </c>
       <c r="G77" s="65" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H77" s="38"/>
-      <c r="I77" s="99"/>
+      <c r="I77" s="101"/>
       <c r="J77" s="25"/>
     </row>
     <row r="78" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="81"/>
+      <c r="A78" s="85"/>
       <c r="B78" s="63">
         <v>41115</v>
       </c>
@@ -2612,14 +2612,14 @@
         <v>3</v>
       </c>
       <c r="G78" s="65" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H78" s="65"/>
       <c r="I78" s="54"/>
       <c r="J78" s="54"/>
     </row>
     <row r="79" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="81"/>
+      <c r="A79" s="85"/>
       <c r="B79" s="36">
         <v>41116</v>
       </c>
@@ -2636,14 +2636,14 @@
         <v>3</v>
       </c>
       <c r="G79" s="65" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H79" s="33"/>
       <c r="I79" s="35"/>
       <c r="J79" s="35"/>
     </row>
     <row r="80" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="81"/>
+      <c r="A80" s="85"/>
       <c r="B80" s="63">
         <v>41117</v>
       </c>
@@ -2660,14 +2660,14 @@
         <v>3</v>
       </c>
       <c r="G80" s="65" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H80" s="33"/>
       <c r="I80" s="35"/>
       <c r="J80" s="35"/>
     </row>
     <row r="81" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="81"/>
+      <c r="A81" s="85"/>
       <c r="B81" s="36">
         <v>41118</v>
       </c>
@@ -2684,14 +2684,14 @@
         <v>5</v>
       </c>
       <c r="G81" s="33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H81" s="33"/>
       <c r="I81" s="24"/>
       <c r="J81" s="24"/>
     </row>
     <row r="82" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="81"/>
+      <c r="A82" s="85"/>
       <c r="B82" s="56">
         <v>41119</v>
       </c>
@@ -2708,14 +2708,14 @@
         <v>4.5</v>
       </c>
       <c r="G82" s="33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H82" s="33"/>
       <c r="I82" s="76"/>
       <c r="J82" s="24"/>
     </row>
     <row r="83" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="82"/>
+      <c r="A83" s="86"/>
       <c r="B83" s="36">
         <v>41119</v>
       </c>
@@ -2732,14 +2732,14 @@
         <v>6</v>
       </c>
       <c r="G83" s="33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H83" s="33"/>
       <c r="I83" s="24"/>
       <c r="J83" s="24"/>
     </row>
     <row r="84" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="77">
+      <c r="A84" s="81">
         <v>12</v>
       </c>
       <c r="B84" s="31">
@@ -2758,14 +2758,14 @@
         <v>2</v>
       </c>
       <c r="G84" s="33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H84" s="24"/>
       <c r="I84" s="24"/>
       <c r="J84" s="24"/>
     </row>
     <row r="85" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="78"/>
+      <c r="A85" s="82"/>
       <c r="B85" s="31">
         <v>41120</v>
       </c>
@@ -2782,50 +2782,50 @@
         <v>4.5</v>
       </c>
       <c r="G85" s="33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H85" s="24"/>
       <c r="I85" s="24"/>
       <c r="J85" s="24"/>
     </row>
     <row r="86" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="78"/>
-      <c r="B86" s="89">
+      <c r="A86" s="82"/>
+      <c r="B86" s="93">
         <v>41121</v>
       </c>
-      <c r="C86" s="91">
+      <c r="C86" s="95">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D86" s="91">
+      <c r="D86" s="95">
         <v>0.72916666666666663</v>
       </c>
-      <c r="E86" s="97">
-        <v>0</v>
-      </c>
-      <c r="F86" s="97">
+      <c r="E86" s="79">
+        <v>0</v>
+      </c>
+      <c r="F86" s="79">
         <v>4.5</v>
       </c>
-      <c r="G86" s="87" t="s">
-        <v>53</v>
+      <c r="G86" s="91" t="s">
+        <v>51</v>
       </c>
       <c r="H86" s="25"/>
-      <c r="I86" s="97"/>
-      <c r="J86" s="97"/>
+      <c r="I86" s="79"/>
+      <c r="J86" s="79"/>
     </row>
     <row r="87" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="78"/>
-      <c r="B87" s="90"/>
-      <c r="C87" s="92"/>
-      <c r="D87" s="92"/>
-      <c r="E87" s="98"/>
-      <c r="F87" s="98"/>
-      <c r="G87" s="88"/>
+      <c r="A87" s="82"/>
+      <c r="B87" s="94"/>
+      <c r="C87" s="96"/>
+      <c r="D87" s="96"/>
+      <c r="E87" s="80"/>
+      <c r="F87" s="80"/>
+      <c r="G87" s="92"/>
       <c r="H87" s="24"/>
-      <c r="I87" s="98"/>
-      <c r="J87" s="98"/>
+      <c r="I87" s="80"/>
+      <c r="J87" s="80"/>
     </row>
     <row r="88" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="78"/>
+      <c r="A88" s="82"/>
       <c r="B88" s="62">
         <v>41121</v>
       </c>
@@ -2841,15 +2841,15 @@
       <c r="F88" s="59">
         <v>2</v>
       </c>
-      <c r="G88" s="97" t="s">
-        <v>39</v>
+      <c r="G88" s="79" t="s">
+        <v>37</v>
       </c>
       <c r="H88" s="25"/>
       <c r="I88" s="59"/>
       <c r="J88" s="59"/>
     </row>
     <row r="89" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="78"/>
+      <c r="A89" s="82"/>
       <c r="B89" s="62">
         <v>41122</v>
       </c>
@@ -2865,13 +2865,13 @@
       <c r="F89" s="59">
         <v>7</v>
       </c>
-      <c r="G89" s="98"/>
+      <c r="G89" s="80"/>
       <c r="H89" s="46"/>
       <c r="I89" s="59"/>
       <c r="J89" s="59"/>
     </row>
     <row r="90" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="78"/>
+      <c r="A90" s="82"/>
       <c r="B90" s="43">
         <v>41123</v>
       </c>
@@ -2888,14 +2888,14 @@
         <v>2</v>
       </c>
       <c r="G90" s="54" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H90" s="54"/>
       <c r="I90" s="54"/>
       <c r="J90" s="54"/>
     </row>
     <row r="91" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="78"/>
+      <c r="A91" s="82"/>
       <c r="B91" s="31">
         <v>41123</v>
       </c>
@@ -2912,14 +2912,14 @@
         <v>2</v>
       </c>
       <c r="G91" s="46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H91" s="24"/>
       <c r="I91" s="24"/>
       <c r="J91" s="24"/>
     </row>
     <row r="92" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="78"/>
+      <c r="A92" s="82"/>
       <c r="B92" s="31">
         <v>41125</v>
       </c>
@@ -2936,14 +2936,14 @@
         <v>5</v>
       </c>
       <c r="G92" s="46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H92" s="24"/>
       <c r="I92" s="24"/>
       <c r="J92" s="24"/>
     </row>
     <row r="93" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="79"/>
+      <c r="A93" s="83"/>
       <c r="B93" s="31">
         <v>41126</v>
       </c>
@@ -2960,14 +2960,14 @@
         <v>5</v>
       </c>
       <c r="G93" s="46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H93" s="24"/>
       <c r="I93" s="24"/>
       <c r="J93" s="24"/>
     </row>
     <row r="94" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="77">
+      <c r="A94" s="81">
         <v>13</v>
       </c>
       <c r="B94" s="31">
@@ -2986,14 +2986,14 @@
         <v>5</v>
       </c>
       <c r="G94" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H94" s="24"/>
       <c r="I94" s="24"/>
       <c r="J94" s="24"/>
     </row>
     <row r="95" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="78"/>
+      <c r="A95" s="82"/>
       <c r="B95" s="31">
         <v>41127</v>
       </c>
@@ -3010,14 +3010,14 @@
         <v>5</v>
       </c>
       <c r="G95" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H95" s="24"/>
       <c r="I95" s="24"/>
       <c r="J95" s="24"/>
     </row>
     <row r="96" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="78"/>
+      <c r="A96" s="82"/>
       <c r="B96" s="31">
         <v>41127</v>
       </c>
@@ -3034,14 +3034,14 @@
         <v>5</v>
       </c>
       <c r="G96" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H96" s="24"/>
       <c r="I96" s="24"/>
       <c r="J96" s="24"/>
     </row>
     <row r="97" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="78"/>
+      <c r="A97" s="82"/>
       <c r="B97" s="31">
         <v>41128</v>
       </c>
@@ -3058,14 +3058,14 @@
         <v>5</v>
       </c>
       <c r="G97" s="24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H97" s="24"/>
       <c r="I97" s="24"/>
       <c r="J97" s="24"/>
     </row>
     <row r="98" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="78"/>
+      <c r="A98" s="82"/>
       <c r="B98" s="31">
         <v>41128</v>
       </c>
@@ -3082,16 +3082,16 @@
         <v>5</v>
       </c>
       <c r="G98" s="24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H98" s="24"/>
       <c r="I98" s="24"/>
       <c r="J98" s="24"/>
     </row>
     <row r="99" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="78"/>
+      <c r="A99" s="82"/>
       <c r="B99" s="31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C99" s="32">
         <v>0.79166666666666696</v>
@@ -3106,14 +3106,14 @@
         <v>5</v>
       </c>
       <c r="G99" s="24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H99" s="24"/>
       <c r="I99" s="24"/>
       <c r="J99" s="24"/>
     </row>
     <row r="100" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="78"/>
+      <c r="A100" s="82"/>
       <c r="B100" s="31">
         <v>41129</v>
       </c>
@@ -3130,14 +3130,14 @@
         <v>8</v>
       </c>
       <c r="G100" s="24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H100" s="24"/>
       <c r="I100" s="24"/>
       <c r="J100" s="24"/>
     </row>
     <row r="101" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="79"/>
+      <c r="A101" s="83"/>
       <c r="B101" s="31">
         <v>41130</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>2</v>
       </c>
       <c r="G101" s="24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H101" s="24"/>
       <c r="I101" s="24"/>
@@ -3165,20 +3165,20 @@
       <c r="B102" s="52">
         <v>41136</v>
       </c>
-      <c r="C102" s="109" t="s">
-        <v>38</v>
-      </c>
-      <c r="D102" s="110"/>
-      <c r="E102" s="110"/>
-      <c r="F102" s="110"/>
-      <c r="G102" s="110"/>
-      <c r="H102" s="110"/>
-      <c r="I102" s="110"/>
-      <c r="J102" s="111"/>
+      <c r="C102" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="D102" s="106"/>
+      <c r="E102" s="106"/>
+      <c r="F102" s="106"/>
+      <c r="G102" s="106"/>
+      <c r="H102" s="106"/>
+      <c r="I102" s="106"/>
+      <c r="J102" s="107"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E103" s="26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F103" s="26">
         <f>SUM(F7:F101)</f>
@@ -3187,7 +3187,7 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E104" s="26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F104" s="26">
         <f>F103/12</f>
@@ -3216,6 +3216,10 @@
     <mergeCell ref="D52:D57"/>
     <mergeCell ref="E52:E57"/>
     <mergeCell ref="A64:A68"/>
+    <mergeCell ref="F52:F57"/>
+    <mergeCell ref="G52:G57"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="B45:B49"/>
     <mergeCell ref="C102:J102"/>
     <mergeCell ref="B86:B87"/>
     <mergeCell ref="C86:C87"/>
@@ -3229,8 +3233,6 @@
     <mergeCell ref="A84:A93"/>
     <mergeCell ref="I86:I87"/>
     <mergeCell ref="J86:J87"/>
-    <mergeCell ref="F52:F57"/>
-    <mergeCell ref="G52:G57"/>
     <mergeCell ref="I36:I39"/>
     <mergeCell ref="F45:F49"/>
     <mergeCell ref="G45:G49"/>
@@ -3240,8 +3242,6 @@
     <mergeCell ref="E36:E39"/>
     <mergeCell ref="F36:F39"/>
     <mergeCell ref="G36:G39"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="B45:B49"/>
     <mergeCell ref="C45:C49"/>
     <mergeCell ref="F27:F28"/>
     <mergeCell ref="G18:G19"/>
@@ -3322,7 +3322,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="112" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" s="113"/>
       <c r="C1" s="113"/>
@@ -3348,13 +3348,13 @@
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" s="118" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" s="118"/>
       <c r="E3" s="119">
@@ -3368,10 +3368,10 @@
     </row>
     <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="10">
         <f>E3</f>
@@ -3402,13 +3402,13 @@
         <v>41056</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12"/>
       <c r="B5" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" s="14">
         <f>E3</f>
@@ -3443,7 +3443,7 @@
     <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6" s="18">
         <v>0.5</v>
@@ -3462,7 +3462,7 @@
     <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" s="18">
         <v>1</v>
@@ -3483,7 +3483,7 @@
     <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" s="18">
         <v>2</v>
@@ -3510,7 +3510,7 @@
     <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9" s="18">
         <v>2</v>
@@ -3529,7 +3529,7 @@
     <row r="10" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
       <c r="B10" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" s="22">
         <f t="shared" ref="C10:J10" si="1">SUM(C6:C9)</f>
